--- a/ble_protocol_V0.2.xlsx
+++ b/ble_protocol_V0.2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E7D21-B055-469B-8B14-8CFE78D55681}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC4F23-7E9F-4763-A8BC-1D2E01B2503F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11--13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -859,14 +855,6 @@
   </si>
   <si>
     <t xml:space="preserve">3：工厂数据： 0xff字段   （14个字节=1+1+2+10）  2+10= 工厂信息包含：2个字节产品型号+   1个字节硬件版本+1个字节软件版本+6个字节蓝牙MAC+2个字节事件信息。  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0x0001:电池
-0x0004:主控系统硬件版本
-0x0006:主控系统软件版本
-0x000a: 门锁的MAC信息（16个字节）
-  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -973,6 +961,18 @@
   </si>
   <si>
     <t>aes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0x0001:电池
+0x0004:主控系统硬件版本
+0x0006:主控系统软件版本
+0x000a: 手机的MAC信息（6个字节）
+  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11--12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,6 +1312,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1322,37 +1349,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="72" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1714,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1729,17 +1729,17 @@
       <c r="E1" s="2">
         <v>9</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1755,18 +1755,18 @@
       <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -1809,18 +1809,18 @@
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="63" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="63" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
@@ -1830,14 +1830,14 @@
       <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="55"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="8" t="s">
@@ -1847,14 +1847,14 @@
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="7"/>
@@ -1869,7 +1869,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="7"/>
@@ -1890,7 +1890,7 @@
       <c r="A11" s="6"/>
       <c r="G11" s="19"/>
       <c r="H11" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" s="19"/>
     </row>
@@ -1908,8 +1908,8 @@
       <c r="K12" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>58</v>
+      <c r="A14" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
@@ -1925,7 +1925,7 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1950,7 +1950,7 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1966,18 +1966,18 @@
       <c r="F16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1991,13 +1991,13 @@
         <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2006,14 +2006,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="25" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2021,7 +2021,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2056,18 +2056,18 @@
       <c r="F20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
@@ -2078,16 +2078,16 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -2096,43 +2096,43 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="7"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
-        <v>110</v>
+      <c r="A27" s="54" t="s">
+        <v>109</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>25</v>
@@ -2148,7 +2148,7 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
@@ -2165,19 +2165,19 @@
         <v>10</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J28" s="43"/>
       <c r="K28" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="21" t="s">
         <v>7</v>
       </c>
@@ -2193,18 +2193,18 @@
       <c r="F29" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="65"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="59"/>
       <c r="K29" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="21" t="s">
         <v>6</v>
       </c>
@@ -2218,14 +2218,14 @@
         <v>31</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J30" s="46"/>
       <c r="K30" s="21" t="s">
@@ -2233,7 +2233,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="21" t="s">
         <v>24</v>
       </c>
@@ -2242,19 +2242,19 @@
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J31" s="36"/>
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>10</v>
@@ -2268,18 +2268,18 @@
       <c r="F32" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
       <c r="K32" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="21" t="s">
         <v>6</v>
       </c>
@@ -2290,17 +2290,17 @@
         <v>28</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" s="48"/>
       <c r="K33" s="21" t="s">
@@ -2308,14 +2308,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="49"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H34" s="48"/>
       <c r="I34" s="49"/>
@@ -2324,15 +2324,15 @@
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
-        <v>98</v>
+      <c r="A37" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="7"/>
@@ -2345,12 +2345,12 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="52"/>
       <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
         <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
       </c>
       <c r="D38" s="6">
         <v>8</v>
@@ -2362,7 +2362,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
@@ -2370,165 +2370,165 @@
         <v>26</v>
       </c>
       <c r="K38" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="54" t="s">
+    </row>
+    <row r="40" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="2" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="7"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="54" t="s">
+    </row>
+    <row r="43" spans="1:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52"/>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="F43" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="I43" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J43" s="28"/>
       <c r="K43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="7"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K44" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
-        <v>119</v>
+      <c r="A47" s="51" t="s">
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="7"/>
@@ -2541,12 +2541,12 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D48" s="7">
         <v>8</v>
@@ -2558,81 +2558,81 @@
         <v>10</v>
       </c>
       <c r="G48" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="I48" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="J48" s="28"/>
       <c r="K48" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="52"/>
+      <c r="B50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="F50" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="7"/>
@@ -2640,16 +2640,16 @@
       <c r="F51" s="2"/>
       <c r="G51" s="34"/>
       <c r="H51" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="7"/>
@@ -2658,77 +2658,77 @@
         <v>10</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="7"/>
       <c r="J52" s="28"/>
       <c r="K52" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="52"/>
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="52"/>
+      <c r="B54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="12" t="s">
+      <c r="F54" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="G54" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G54" s="25" t="s">
-        <v>97</v>
-      </c>
       <c r="H54" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I54" s="25" t="s">
-        <v>92</v>
-      </c>
       <c r="J54" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="7"/>
@@ -2736,33 +2736,33 @@
       <c r="F55" s="2"/>
       <c r="G55" s="25"/>
       <c r="H55" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G32:J32"/>
     <mergeCell ref="A37:A44"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="G42:J42"/>
     <mergeCell ref="A47:A55"/>
     <mergeCell ref="G49:J49"/>
     <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2785,27 +2785,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2834,14 +2834,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
@@ -3075,7 +3075,7 @@
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3140,12 +3140,12 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
